--- a/SUIZA.xlsx
+++ b/SUIZA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19660" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>92, 795, 843</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>8, 88, 182</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -459,6 +465,20 @@
         <v>236</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/SUIZA.xlsx
+++ b/SUIZA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>8, 88, 182</t>
+  </si>
+  <si>
+    <t>GD Karfreitag</t>
+  </si>
+  <si>
+    <t>443, 446, 314, 448, 435</t>
+  </si>
+  <si>
+    <t>Silvesterfeier</t>
+  </si>
+  <si>
+    <t>548, 53, 334</t>
   </si>
 </sst>
 </file>
@@ -84,9 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -418,17 +433,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -441,7 +456,7 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -450,33 +465,75 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>41091</v>
+        <v>41012</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E20">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>41210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
